--- a/database_museum/databasemuseum.xlsx
+++ b/database_museum/databasemuseum.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\DataBase_museum\database_museum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FADB11-C83E-4CCD-B94A-27AC24B58621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1290" yWindow="645" windowWidth="35010" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="музей" sheetId="2" r:id="rId1"/>
+    <sheet name="экспонат(авто)" sheetId="1" r:id="rId2"/>
+    <sheet name="Выставки" sheetId="6" r:id="rId3"/>
+    <sheet name="бизнес процессы" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,866 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="284">
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Ключ</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Длина</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Экспонат(автомобиль)</t>
+  </si>
+  <si>
+    <t>id_car</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>уникальный id экспоната</t>
+  </si>
+  <si>
+    <t>brand_auto</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>каробка передач</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>модель ТС</t>
+  </si>
+  <si>
+    <t>V_volume</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>обьём двигателя</t>
+  </si>
+  <si>
+    <t>Manufact_date</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>дата производства</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>габариты авто</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>страна производитель</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>тип привода авто</t>
+  </si>
+  <si>
+    <t>max_speed</t>
+  </si>
+  <si>
+    <t>максимальная скорость авто</t>
+  </si>
+  <si>
+    <t>описание экспоната</t>
+  </si>
+  <si>
+    <t>id_description</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>подзагаловок</t>
+  </si>
+  <si>
+    <t>Технические характеристики атомобиля</t>
+  </si>
+  <si>
+    <t>Паспорт автомобиля</t>
+  </si>
+  <si>
+    <t>уникальный id технических характеристик</t>
+  </si>
+  <si>
+    <t>уникальный id пасорта автомобиля</t>
+  </si>
+  <si>
+    <t>id_passport_car</t>
+  </si>
+  <si>
+    <t>id_technical_car</t>
+  </si>
+  <si>
+    <t>История автомобиля</t>
+  </si>
+  <si>
+    <t>id_history_car</t>
+  </si>
+  <si>
+    <t>уникальный id истории автомобиля</t>
+  </si>
+  <si>
+    <t>partici_race</t>
+  </si>
+  <si>
+    <t>участие авто в гонках</t>
+  </si>
+  <si>
+    <t>data_start</t>
+  </si>
+  <si>
+    <t>дата начала производства</t>
+  </si>
+  <si>
+    <t>data_end</t>
+  </si>
+  <si>
+    <t>дата завершения производства</t>
+  </si>
+  <si>
+    <t>famous_owners</t>
+  </si>
+  <si>
+    <t>знаменитые владельцы авто</t>
+  </si>
+  <si>
+    <t>number_released</t>
+  </si>
+  <si>
+    <t>количество выпушенных авто в штуках</t>
+  </si>
+  <si>
+    <t>Описание экспоната</t>
+  </si>
+  <si>
+    <t>Зал музея</t>
+  </si>
+  <si>
+    <t>id_musem_hall</t>
+  </si>
+  <si>
+    <t>number_seats</t>
+  </si>
+  <si>
+    <t>колчесвто мест экспонатов в зале</t>
+  </si>
+  <si>
+    <t>name_hall</t>
+  </si>
+  <si>
+    <t>название зала</t>
+  </si>
+  <si>
+    <t>уникальный id зала</t>
+  </si>
+  <si>
+    <t>them_hall</t>
+  </si>
+  <si>
+    <t>тематика зала</t>
+  </si>
+  <si>
+    <t>Фоей музея</t>
+  </si>
+  <si>
+    <t>id_musem_foe</t>
+  </si>
+  <si>
+    <t>уникальный id фое</t>
+  </si>
+  <si>
+    <t>id_reception</t>
+  </si>
+  <si>
+    <t>id_wardrobe</t>
+  </si>
+  <si>
+    <t>Музей</t>
+  </si>
+  <si>
+    <t>уникальный id музея</t>
+  </si>
+  <si>
+    <t>id_cafe</t>
+  </si>
+  <si>
+    <t>id_instalation</t>
+  </si>
+  <si>
+    <t>id_chill_zone</t>
+  </si>
+  <si>
+    <t>id_local_zone</t>
+  </si>
+  <si>
+    <t>зона отдыха в зале</t>
+  </si>
+  <si>
+    <t>зона размещения экспоната</t>
+  </si>
+  <si>
+    <t>id_musem</t>
+  </si>
+  <si>
+    <t>Кафе в музеи</t>
+  </si>
+  <si>
+    <t>уникальный id кафе</t>
+  </si>
+  <si>
+    <t>Рецепшн</t>
+  </si>
+  <si>
+    <t>Гардероб</t>
+  </si>
+  <si>
+    <t>Инсталяции</t>
+  </si>
+  <si>
+    <t>Зона отдыха</t>
+  </si>
+  <si>
+    <t>Зона размещения экспоната</t>
+  </si>
+  <si>
+    <t>id_installations</t>
+  </si>
+  <si>
+    <t>уникальный id зоны размещения экспоната</t>
+  </si>
+  <si>
+    <t>уникальный id ресепшена</t>
+  </si>
+  <si>
+    <t>уникальный id гардероба</t>
+  </si>
+  <si>
+    <t>уникальный id инсталяции</t>
+  </si>
+  <si>
+    <t>id_restroom</t>
+  </si>
+  <si>
+    <t>уникальный id уборной</t>
+  </si>
+  <si>
+    <t>Уборная</t>
+  </si>
+  <si>
+    <t>Склад с экспонатами</t>
+  </si>
+  <si>
+    <t>id_ storage_exhibits</t>
+  </si>
+  <si>
+    <t>уникальный id склада</t>
+  </si>
+  <si>
+    <t>Входная группа в музей</t>
+  </si>
+  <si>
+    <t>id_ enter_group</t>
+  </si>
+  <si>
+    <t>уникальный id входная группа</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>ресепшн</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>инсталяции</t>
+  </si>
+  <si>
+    <t>Описание параметра</t>
+  </si>
+  <si>
+    <t>Описание поля</t>
+  </si>
+  <si>
+    <t>структура ресепшена</t>
+  </si>
+  <si>
+    <t>описание параметра</t>
+  </si>
+  <si>
+    <t>описание поля</t>
+  </si>
+  <si>
+    <t>залы музей</t>
+  </si>
+  <si>
+    <t>фое</t>
+  </si>
+  <si>
+    <t>струтура фое</t>
+  </si>
+  <si>
+    <t>склад</t>
+  </si>
+  <si>
+    <t>гардероб</t>
+  </si>
+  <si>
+    <t>какой гардероб</t>
+  </si>
+  <si>
+    <t>уборная</t>
+  </si>
+  <si>
+    <t>какая уборная</t>
+  </si>
+  <si>
+    <t>какое кафе</t>
+  </si>
+  <si>
+    <t>чем представлена входная группа</t>
+  </si>
+  <si>
+    <t>Кафе</t>
+  </si>
+  <si>
+    <t>Входная группа</t>
+  </si>
+  <si>
+    <t>Какой музей</t>
+  </si>
+  <si>
+    <t>Какой зал</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>зона отдыха</t>
+  </si>
+  <si>
+    <t>чем представлена зона отдыха</t>
+  </si>
+  <si>
+    <t>чем представлены параметры размещенияэкспонатов</t>
+  </si>
+  <si>
+    <t>какие инсталяции предаставлены в зале</t>
+  </si>
+  <si>
+    <t>какие инсталяции предаставлены в фое</t>
+  </si>
+  <si>
+    <t>какое фое</t>
+  </si>
+  <si>
+    <t>какая зона отдыха</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>размер</t>
+  </si>
+  <si>
+    <t>размер зоны для одного экспоната</t>
+  </si>
+  <si>
+    <t>number_zone</t>
+  </si>
+  <si>
+    <t>уникальный id зоны отдыха</t>
+  </si>
+  <si>
+    <t>размер зоны для отдыха</t>
+  </si>
+  <si>
+    <t>type_chill_zone</t>
+  </si>
+  <si>
+    <t>количество зон отдыха в зале</t>
+  </si>
+  <si>
+    <t>количество зон отдыха</t>
+  </si>
+  <si>
+    <t>что в зодит в зону отдыха и чем она представлена</t>
+  </si>
+  <si>
+    <t>Какая входная группа</t>
+  </si>
+  <si>
+    <t>type_enter_group</t>
+  </si>
+  <si>
+    <t>размер входной группы</t>
+  </si>
+  <si>
+    <t>что входит в входнуб группу</t>
+  </si>
+  <si>
+    <t>размер зоны размещения</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>ограждение зоны</t>
+  </si>
+  <si>
+    <t>чем представлена зона огрждения эспоната</t>
+  </si>
+  <si>
+    <t>type_local_zone</t>
+  </si>
+  <si>
+    <t>тип экспоната</t>
+  </si>
+  <si>
+    <t>что можно размещать в данной зоне</t>
+  </si>
+  <si>
+    <t>type_cafe</t>
+  </si>
+  <si>
+    <t>seating</t>
+  </si>
+  <si>
+    <t>style_cafe</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>размер кафе</t>
+  </si>
+  <si>
+    <t>тип общепита</t>
+  </si>
+  <si>
+    <t>пасадочные места</t>
+  </si>
+  <si>
+    <t>стиль оформления</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>площадь занимаемая кафе</t>
+  </si>
+  <si>
+    <t>количество посадочных мест</t>
+  </si>
+  <si>
+    <t>стилизация общепита</t>
+  </si>
+  <si>
+    <t>кухня обшепита</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>меню</t>
+  </si>
+  <si>
+    <t>меню общепита</t>
+  </si>
+  <si>
+    <t>Какая зона размещения экспоната</t>
+  </si>
+  <si>
+    <t>какой эспанат будет размещён</t>
+  </si>
+  <si>
+    <t>какой тип (рестаоран,бар)и.т.к</t>
+  </si>
+  <si>
+    <t>какой ресепш</t>
+  </si>
+  <si>
+    <t>размер ресепшена</t>
+  </si>
+  <si>
+    <t>площадь занимаемая ресепшеном</t>
+  </si>
+  <si>
+    <t>style_reception</t>
+  </si>
+  <si>
+    <t>стилизация ресепшена</t>
+  </si>
+  <si>
+    <t>number_jobs</t>
+  </si>
+  <si>
+    <t>количество раб мест</t>
+  </si>
+  <si>
+    <t>сколько сотрудников ондовременно могут рабать в зоне ресепшен</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оснощение </t>
+  </si>
+  <si>
+    <t>что нужно для оснащения ресепшена</t>
+  </si>
+  <si>
+    <t>какое оборудование необходимо для работы ресепшена</t>
+  </si>
+  <si>
+    <t>размер гардероба</t>
+  </si>
+  <si>
+    <t>number_warderob</t>
+  </si>
+  <si>
+    <t>количество мест в гардеробе</t>
+  </si>
+  <si>
+    <t>площадь занимаемая гардеробом</t>
+  </si>
+  <si>
+    <t>стилизация гардероба</t>
+  </si>
+  <si>
+    <t>показывает количесвто рабочих мест</t>
+  </si>
+  <si>
+    <t>что нужно для оснащения гардероба</t>
+  </si>
+  <si>
+    <t>показывает количесвто вешелок для вещей</t>
+  </si>
+  <si>
+    <t>сколько сотрудников ондовременно могут рабать в гардеробе</t>
+  </si>
+  <si>
+    <t>сколько вещей ондовременно могут быть  сданы в  гардероб</t>
+  </si>
+  <si>
+    <t>какая инсталяция</t>
+  </si>
+  <si>
+    <t>размер инсталяции</t>
+  </si>
+  <si>
+    <t>type_installation</t>
+  </si>
+  <si>
+    <t>theme_installation</t>
+  </si>
+  <si>
+    <t>площадь занимаемая интсаляцией(в м^2)</t>
+  </si>
+  <si>
+    <t>площадь занимаемая инсталяцией</t>
+  </si>
+  <si>
+    <t>тип инсталяции</t>
+  </si>
+  <si>
+    <t>описывает тип инсталяции</t>
+  </si>
+  <si>
+    <t>какой тип инсталяции</t>
+  </si>
+  <si>
+    <t>тема инсталяции</t>
+  </si>
+  <si>
+    <t>описывает тему инсталяции</t>
+  </si>
+  <si>
+    <t>какая тема инсталяции</t>
+  </si>
+  <si>
+    <t>number_booths</t>
+  </si>
+  <si>
+    <t>размер уборной</t>
+  </si>
+  <si>
+    <t>площадь занимаемая уборной(в м^2)</t>
+  </si>
+  <si>
+    <t>площадь занимаемая уборной</t>
+  </si>
+  <si>
+    <t>стилизация уборной</t>
+  </si>
+  <si>
+    <t>количество кабинок</t>
+  </si>
+  <si>
+    <t>показывает количесвто кабинок в уборной</t>
+  </si>
+  <si>
+    <t>сколько людей могут посетить уборную</t>
+  </si>
+  <si>
+    <t>какой склад</t>
+  </si>
+  <si>
+    <t>размер склада</t>
+  </si>
+  <si>
+    <t>площадь занимаемая складом(в м^2)</t>
+  </si>
+  <si>
+    <t>площадь занимаемая складом</t>
+  </si>
+  <si>
+    <t>number_exhibits</t>
+  </si>
+  <si>
+    <t>количесвто экспонатов</t>
+  </si>
+  <si>
+    <t>вместимоть скалада</t>
+  </si>
+  <si>
+    <t>сколько экспонатов можно хранить на складе</t>
+  </si>
+  <si>
+    <t>сколько сотрудников ондовременно могут рабать на складе</t>
+  </si>
+  <si>
+    <t>что нужно для оснащения склада</t>
+  </si>
+  <si>
+    <t>какое оборудование необходимо для работы склада</t>
+  </si>
+  <si>
+    <t>id экспоната</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id пасорта автомобиля</t>
+  </si>
+  <si>
+    <t>id паспорт авто</t>
+  </si>
+  <si>
+    <t>id тех характеристики</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id истроия машины</t>
+  </si>
+  <si>
+    <t>id технических характеристик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id истории автомобиля</t>
+  </si>
+  <si>
+    <t>трансмисия</t>
+  </si>
+  <si>
+    <t>привод</t>
+  </si>
+  <si>
+    <t>максимальная скорость</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id технических характеристик</t>
+  </si>
+  <si>
+    <t>Какой привод атвомобиля</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вес авто </t>
+  </si>
+  <si>
+    <t>вес автомобиля</t>
+  </si>
+  <si>
+    <t>Какой вес автомобиля</t>
+  </si>
+  <si>
+    <t>Какие габариты автомобиля</t>
+  </si>
+  <si>
+    <t>Какой обьём двигателя автомобиля</t>
+  </si>
+  <si>
+    <t>Какая максимальная скорость автомобиля</t>
+  </si>
+  <si>
+    <t>Какая трансмисия автомобиля</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Дата изготовления</t>
+  </si>
+  <si>
+    <t>Страна производства</t>
+  </si>
+  <si>
+    <t>бренд автомобиля</t>
+  </si>
+  <si>
+    <t>id пасорта автомобиля</t>
+  </si>
+  <si>
+    <t>Какой бренд автомобиля</t>
+  </si>
+  <si>
+    <t>Какая модель автомобиля</t>
+  </si>
+  <si>
+    <t>Когда автомобиль был произведен</t>
+  </si>
+  <si>
+    <t>В какой стране собиратется автомобиль</t>
+  </si>
+  <si>
+    <t>Участие в гонаках</t>
+  </si>
+  <si>
+    <t>Знаменитости</t>
+  </si>
+  <si>
+    <t>Количество авто</t>
+  </si>
+  <si>
+    <t>Начало производства</t>
+  </si>
+  <si>
+    <t>Конец производства</t>
+  </si>
+  <si>
+    <t>Учасвтовал ли атомобиль в гонках</t>
+  </si>
+  <si>
+    <t>Когда автомобиль начали производить</t>
+  </si>
+  <si>
+    <t>Когда автомобиль перестали производить</t>
+  </si>
+  <si>
+    <t>Кто из знаменитостей ездил на данном авто</t>
+  </si>
+  <si>
+    <t>Сколь всего было сделано авто</t>
+  </si>
+  <si>
+    <t>уникальный id описапния экспоната</t>
+  </si>
+  <si>
+    <t>id описания экспоната</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id истории </t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Подзаголовок</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>заголовок описания</t>
+  </si>
+  <si>
+    <t>Загаловок описания</t>
+  </si>
+  <si>
+    <t>Подзаголовок описания</t>
+  </si>
+  <si>
+    <t>Текс описания</t>
+  </si>
+  <si>
+    <t>id описание экспоната</t>
+  </si>
+  <si>
+    <t>Входной билет</t>
+  </si>
+  <si>
+    <t>entrance ticket</t>
+  </si>
+  <si>
+    <t>уникальный id входного билета</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id входного билета</t>
+  </si>
+  <si>
+    <t>какой зал есть в музее</t>
+  </si>
+  <si>
+    <t>Экскурсии</t>
+  </si>
+  <si>
+    <t>Посититель</t>
+  </si>
+  <si>
+    <t>Магазин музея</t>
+  </si>
+  <si>
+    <t>Доп активности</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +894,164 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF002033"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,18 +1059,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6666FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF3366FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,12 +1558,3017 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079F2502-624F-4982-B6ED-2064B6331096}">
+  <dimension ref="A1:O79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="19.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="26.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2">
+        <v>200</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1">
+      <c r="A8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="33">
+        <v>200</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11"/>
+      <c r="C11" s="12"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30">
+      <c r="A20" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30">
+      <c r="A22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1"/>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:15" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="I26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="2">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="2">
+        <v>200</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="30">
+      <c r="I31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30">
+      <c r="I32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="2">
+        <v>150</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="32.25" customHeight="1">
+      <c r="I33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>5</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="31.5" customHeight="1"/>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="I36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2">
+        <v>10</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="2">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30">
+      <c r="A40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2">
+        <v>100</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="2">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="I41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="2">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="43" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A43" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="I43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="2">
+        <v>10</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="2">
+        <v>30</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30">
+      <c r="A47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2">
+        <v>100</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="2">
+        <v>200</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="30">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="I48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="27.75" customHeight="1" thickBot="1"/>
+    <row r="51" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A51" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="I51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="2">
+        <v>10</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="30">
+      <c r="A54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2">
+        <v>50</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="2">
+        <v>30</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="30">
+      <c r="A55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2">
+        <v>30</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="2">
+        <v>10</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30">
+      <c r="A56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2">
+        <v>30</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="2">
+        <v>2</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="30">
+      <c r="I57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="2">
+        <v>150</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A59" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="I59" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61" s="2">
+        <v>10</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="66" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A66" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="I66" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68" s="2">
+        <v>10</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A74" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="9" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30">
+      <c r="A5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30">
+      <c r="A7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33.75" customHeight="1">
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="25.5">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2">
+        <v>100</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" thickBot="1"/>
+    <row r="21" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" ht="30.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A2451-F639-4875-9061-1A52A1832375}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EFE085-80E0-4703-8077-ED69D56D9C10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_museum/databasemuseum.xlsx
+++ b/database_museum/databasemuseum.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\DataBase_museum\database_museum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FADB11-C83E-4CCD-B94A-27AC24B58621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EAC456-6E68-4DBD-B100-ADC1094319D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="645" windowWidth="35010" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="120" windowWidth="35010" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="музей" sheetId="2" r:id="rId1"/>
     <sheet name="экспонат(авто)" sheetId="1" r:id="rId2"/>
     <sheet name="Выставки" sheetId="6" r:id="rId3"/>
-    <sheet name="бизнес процессы" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="594">
   <si>
     <t>Параметр</t>
   </si>
@@ -66,27 +65,15 @@
     <t>text</t>
   </si>
   <si>
-    <t>transmission</t>
-  </si>
-  <si>
-    <t>каробка передач</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>модель ТС</t>
   </si>
   <si>
-    <t>V_volume</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>обьём двигателя</t>
-  </si>
-  <si>
     <t>Manufact_date</t>
   </si>
   <si>
@@ -96,27 +83,15 @@
     <t>дата производства</t>
   </si>
   <si>
-    <t>dimensions</t>
-  </si>
-  <si>
     <t>Real</t>
   </si>
   <si>
-    <t>габариты авто</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
     <t>страна производитель</t>
   </si>
   <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>тип привода авто</t>
-  </si>
-  <si>
     <t>max_speed</t>
   </si>
   <si>
@@ -723,45 +698,21 @@
     <t xml:space="preserve"> id истории автомобиля</t>
   </si>
   <si>
-    <t>трансмисия</t>
-  </si>
-  <si>
-    <t>привод</t>
-  </si>
-  <si>
     <t>максимальная скорость</t>
   </si>
   <si>
     <t xml:space="preserve"> id технических характеристик</t>
   </si>
   <si>
-    <t>Какой привод атвомобиля</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t xml:space="preserve">вес авто </t>
-  </si>
-  <si>
     <t>вес автомобиля</t>
   </si>
   <si>
-    <t>Какой вес автомобиля</t>
-  </si>
-  <si>
-    <t>Какие габариты автомобиля</t>
-  </si>
-  <si>
-    <t>Какой обьём двигателя автомобиля</t>
-  </si>
-  <si>
     <t>Какая максимальная скорость автомобиля</t>
   </si>
   <si>
-    <t>Какая трансмисия автомобиля</t>
-  </si>
-  <si>
     <t>Бренд</t>
   </si>
   <si>
@@ -858,9 +809,6 @@
     <t>Входной билет</t>
   </si>
   <si>
-    <t>entrance ticket</t>
-  </si>
-  <si>
     <t>уникальный id входного билета</t>
   </si>
   <si>
@@ -879,19 +827,1016 @@
     <t>Магазин музея</t>
   </si>
   <si>
-    <t>Доп активности</t>
+    <t>Выставка</t>
+  </si>
+  <si>
+    <t>id exhibition</t>
+  </si>
+  <si>
+    <t>уникальный id выставки</t>
+  </si>
+  <si>
+    <t>id выставки</t>
+  </si>
+  <si>
+    <t>number_halls</t>
+  </si>
+  <si>
+    <t>колличество залов</t>
+  </si>
+  <si>
+    <t>количесвто залов</t>
+  </si>
+  <si>
+    <t>Сколько залов участвует в выставке</t>
+  </si>
+  <si>
+    <t>колличество экспанатов</t>
+  </si>
+  <si>
+    <t>количесвто экспанатов</t>
+  </si>
+  <si>
+    <t>theme_exhibition</t>
+  </si>
+  <si>
+    <t>тема выставки</t>
+  </si>
+  <si>
+    <t>тематика выставки</t>
+  </si>
+  <si>
+    <t>На какую тему выставка</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>дата начала выставки</t>
+  </si>
+  <si>
+    <t>data_event_start</t>
+  </si>
+  <si>
+    <t>data_event_end</t>
+  </si>
+  <si>
+    <t>начало выставки</t>
+  </si>
+  <si>
+    <t>конец выставки</t>
+  </si>
+  <si>
+    <t>дата завершения выставки</t>
+  </si>
+  <si>
+    <t>Затраты на выставку</t>
+  </si>
+  <si>
+    <t>id _exhibition_costs</t>
+  </si>
+  <si>
+    <t>Прибль выставки</t>
+  </si>
+  <si>
+    <t>id _profit</t>
+  </si>
+  <si>
+    <t>уникальный id затрат на выставку</t>
+  </si>
+  <si>
+    <t>id затрат на выставку</t>
+  </si>
+  <si>
+    <t>уникальный id прибыли выставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id прибыль выставки</t>
+  </si>
+  <si>
+    <t>Правила нахождения в музеи</t>
+  </si>
+  <si>
+    <t>Сотрудники музея</t>
+  </si>
+  <si>
+    <t>Тип экспоната</t>
+  </si>
+  <si>
+    <t>класс автомобиля</t>
+  </si>
+  <si>
+    <t>тип двигателя</t>
+  </si>
+  <si>
+    <t>эксплуатация</t>
+  </si>
+  <si>
+    <t>Для каких целей служит</t>
+  </si>
+  <si>
+    <t>if_type_exhibit</t>
+  </si>
+  <si>
+    <t>сегмент пользователей</t>
+  </si>
+  <si>
+    <t>Для какого сегмента людей выпускался автомобиль</t>
+  </si>
+  <si>
+    <t>К какому классу относиться афтомобиль(семейный, гоночный, бездарожье)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">экзклюзивность </t>
+  </si>
+  <si>
+    <t>К какому типу производства относится автомобиль(серийный, лимитированный, эксклюзивный)</t>
+  </si>
+  <si>
+    <t>Двигатель</t>
+  </si>
+  <si>
+    <t>id_engine</t>
+  </si>
+  <si>
+    <t>type_engine</t>
+  </si>
+  <si>
+    <t>мощность двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крутящий момент </t>
+  </si>
+  <si>
+    <t>количесвто цилиндров</t>
+  </si>
+  <si>
+    <t>Какой двигатель(элкетро,турбированный, атмосферный, апозитный)</t>
+  </si>
+  <si>
+    <t>компановка цилиндров</t>
+  </si>
+  <si>
+    <t>Кузов</t>
+  </si>
+  <si>
+    <t>шасси</t>
+  </si>
+  <si>
+    <t>тормазная ситема</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> система выпуска</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> система впуска</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> трансмиссия</t>
+  </si>
+  <si>
+    <t>безопасность</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>цена билета</t>
+  </si>
+  <si>
+    <t>стоимость билета</t>
+  </si>
+  <si>
+    <t>type_tickets</t>
+  </si>
+  <si>
+    <t>тип билета</t>
+  </si>
+  <si>
+    <t>function_ticket</t>
+  </si>
+  <si>
+    <t>свойтва билет</t>
+  </si>
+  <si>
+    <t>свойства билета</t>
+  </si>
+  <si>
+    <t>что позволяет билет</t>
+  </si>
+  <si>
+    <t>к какокой ктегории белет относится(vip,group,indnvidua,familyl)</t>
+  </si>
+  <si>
+    <t>inform_ticket</t>
+  </si>
+  <si>
+    <t>текс билета</t>
+  </si>
+  <si>
+    <t>информация на билете</t>
+  </si>
+  <si>
+    <t>что отображенно на билете</t>
+  </si>
+  <si>
+    <t>view_ticket</t>
+  </si>
+  <si>
+    <t>вид билета</t>
+  </si>
+  <si>
+    <t>какой билет( электроный или физический)</t>
+  </si>
+  <si>
+    <t>id_entrance ticket</t>
+  </si>
+  <si>
+    <t>id_visitor</t>
+  </si>
+  <si>
+    <t>уникальный id поситителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id поситителя</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>patronymic</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>фамилия</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>отчество (если есть)</t>
+  </si>
+  <si>
+    <t>дата рождения</t>
+  </si>
+  <si>
+    <t>age status</t>
+  </si>
+  <si>
+    <t>возрастной статус</t>
+  </si>
+  <si>
+    <t>возрастной статус человека</t>
+  </si>
+  <si>
+    <t>Кто посититель(ребенок или взрослый)</t>
+  </si>
+  <si>
+    <t>social status</t>
+  </si>
+  <si>
+    <t>социальный статус</t>
+  </si>
+  <si>
+    <t>социальный статус человека</t>
+  </si>
+  <si>
+    <t>К каой социальной группе людей относится поситетель</t>
+  </si>
+  <si>
+    <t>type_visitor</t>
+  </si>
+  <si>
+    <t>тип поситетеля</t>
+  </si>
+  <si>
+    <t>тип поситителя</t>
+  </si>
+  <si>
+    <t>К какой категории посетитеь отностится(индивидуальный, экскурсионный)</t>
+  </si>
+  <si>
+    <t>type_payment</t>
+  </si>
+  <si>
+    <t>тип оплаты</t>
+  </si>
+  <si>
+    <t>Как посетитель оплатил(нал, безнал)</t>
+  </si>
+  <si>
+    <t>id_activities</t>
+  </si>
+  <si>
+    <t>уникальный id активности</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id активности</t>
+  </si>
+  <si>
+    <t>цена активности</t>
+  </si>
+  <si>
+    <t>стоимость активности</t>
+  </si>
+  <si>
+    <t>type_activites</t>
+  </si>
+  <si>
+    <t>тип активности</t>
+  </si>
+  <si>
+    <t>Какой тип активности</t>
+  </si>
+  <si>
+    <t>description_activites</t>
+  </si>
+  <si>
+    <t>описание активности</t>
+  </si>
+  <si>
+    <t>какая активность</t>
+  </si>
+  <si>
+    <t>Что предлагает активность</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>образование</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>отчество</t>
+  </si>
+  <si>
+    <t>married status</t>
+  </si>
+  <si>
+    <t>семейное положение</t>
+  </si>
+  <si>
+    <t>Какое семейное положение</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>есть ли дети</t>
+  </si>
+  <si>
+    <t>id_staff</t>
+  </si>
+  <si>
+    <t>уникальный id сотрудника</t>
+  </si>
+  <si>
+    <t>id сотрудника</t>
+  </si>
+  <si>
+    <t>сотрудники</t>
+  </si>
+  <si>
+    <t>id excursion</t>
+  </si>
+  <si>
+    <t>уникальный id экскурсии</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id экскурсии</t>
+  </si>
+  <si>
+    <t>theme_excursion</t>
+  </si>
+  <si>
+    <t>тема экскурсии</t>
+  </si>
+  <si>
+    <t>time_excursion</t>
+  </si>
+  <si>
+    <t>длительность экскурсии</t>
+  </si>
+  <si>
+    <t>сколько длится экскурсия</t>
+  </si>
+  <si>
+    <t>number_human</t>
+  </si>
+  <si>
+    <t>количество людей</t>
+  </si>
+  <si>
+    <t>сколько людей могут участвовать в экскурсии одновременно</t>
+  </si>
+  <si>
+    <t>id shop</t>
+  </si>
+  <si>
+    <t>уникальный id магазина музея</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id магазина музея</t>
+  </si>
+  <si>
+    <t>showcase</t>
+  </si>
+  <si>
+    <t>Ветрина</t>
+  </si>
+  <si>
+    <t>струтура ветрины магазина</t>
+  </si>
+  <si>
+    <t>как устроена ветрина магазина</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>товар магазина</t>
+  </si>
+  <si>
+    <t>Какой товар продаёт магазин</t>
+  </si>
+  <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>цена товара</t>
+  </si>
+  <si>
+    <t>цена товаров</t>
+  </si>
+  <si>
+    <t>За сколько продаётся товар</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>цена закупки товара</t>
+  </si>
+  <si>
+    <t>цена закупки товаров</t>
+  </si>
+  <si>
+    <t>За сколько покупается товар</t>
+  </si>
+  <si>
+    <t>id_rules</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>уникальный id паравила музея</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id парвила музей</t>
+  </si>
+  <si>
+    <t>title_rules</t>
+  </si>
+  <si>
+    <t>название правила</t>
+  </si>
+  <si>
+    <t>Какое правило</t>
+  </si>
+  <si>
+    <t>text_rules</t>
+  </si>
+  <si>
+    <t>правило</t>
+  </si>
+  <si>
+    <t>описание правила</t>
+  </si>
+  <si>
+    <t>О чём правило</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>штраф</t>
+  </si>
+  <si>
+    <t>Размер штрафа за нарушения правила</t>
+  </si>
+  <si>
+    <t>Свод правил</t>
+  </si>
+  <si>
+    <t>id_rules_book</t>
+  </si>
+  <si>
+    <t>уникальный id свода правил музея</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id свода правил музея</t>
+  </si>
+  <si>
+    <t>id правила</t>
+  </si>
+  <si>
+    <t>дата создания</t>
+  </si>
+  <si>
+    <t>когда был создан свод правил</t>
+  </si>
+  <si>
+    <t>date_change</t>
+  </si>
+  <si>
+    <t>дата изменения</t>
+  </si>
+  <si>
+    <t>дата изменения свода правил</t>
+  </si>
+  <si>
+    <t>дата создания свода правил</t>
+  </si>
+  <si>
+    <t>когда был изменён свод правил</t>
+  </si>
+  <si>
+    <t>power_engine</t>
+  </si>
+  <si>
+    <t>torque</t>
+  </si>
+  <si>
+    <t>number_cylinders</t>
+  </si>
+  <si>
+    <t>cylinder layout</t>
+  </si>
+  <si>
+    <t>Какая мощность двигателя</t>
+  </si>
+  <si>
+    <t>Кокой крутящий момент в ньютонах</t>
+  </si>
+  <si>
+    <t>Сколь цилиндров у двигателя если есть</t>
+  </si>
+  <si>
+    <t>Какая компановка у двигателя</t>
+  </si>
+  <si>
+    <t>уникальный id двигателя автомобиля</t>
+  </si>
+  <si>
+    <t>id двигателея автомобиля</t>
+  </si>
+  <si>
+    <t>id двигателя</t>
+  </si>
+  <si>
+    <t>id_chassis</t>
+  </si>
+  <si>
+    <t>уникальный id шасси автомобиля</t>
+  </si>
+  <si>
+    <t>id шасси автомобиля</t>
+  </si>
+  <si>
+    <t>type_drive</t>
+  </si>
+  <si>
+    <t>differential</t>
+  </si>
+  <si>
+    <t>Привод</t>
+  </si>
+  <si>
+    <t>дифференциал</t>
+  </si>
+  <si>
+    <t>тип привода</t>
+  </si>
+  <si>
+    <t>тип дифференциала</t>
+  </si>
+  <si>
+    <t>Какой привод у автомобиля</t>
+  </si>
+  <si>
+    <t>Какой дифференциал</t>
+  </si>
+  <si>
+    <t>id шасси</t>
+  </si>
+  <si>
+    <t>id_exhaust_system</t>
+  </si>
+  <si>
+    <t>уникальный id выпускной системы</t>
+  </si>
+  <si>
+    <t>id выпускной системы</t>
+  </si>
+  <si>
+    <t>type_exhaust</t>
+  </si>
+  <si>
+    <t>material_exhaust</t>
+  </si>
+  <si>
+    <t>тип выпускной системы</t>
+  </si>
+  <si>
+    <t>материал выпускной системы</t>
+  </si>
+  <si>
+    <t>Какая выпускная система</t>
+  </si>
+  <si>
+    <t>Из кого материала выпускная система</t>
+  </si>
+  <si>
+    <t>id_transmission</t>
+  </si>
+  <si>
+    <t>уникальный id трансмисси</t>
+  </si>
+  <si>
+    <t>id трансмисси</t>
+  </si>
+  <si>
+    <t>number of gears</t>
+  </si>
+  <si>
+    <t>количесвто передач</t>
+  </si>
+  <si>
+    <t>type_transmission</t>
+  </si>
+  <si>
+    <t>тип трансмиссии</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>сцепление</t>
+  </si>
+  <si>
+    <t>Сколько передач в коробке</t>
+  </si>
+  <si>
+    <t>какой ти коробки</t>
+  </si>
+  <si>
+    <t>какой сцепление</t>
+  </si>
+  <si>
+    <t>id трансмиссии</t>
+  </si>
+  <si>
+    <t>car class</t>
+  </si>
+  <si>
+    <t>exploitation</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>exclusivity</t>
+  </si>
+  <si>
+    <t>уникальный id типа экспоната</t>
+  </si>
+  <si>
+    <t>id типа экспоната</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>уникальный id кузова автомобиля</t>
+  </si>
+  <si>
+    <t>id кузова автомобиля</t>
+  </si>
+  <si>
+    <t>id_car_body</t>
+  </si>
+  <si>
+    <t>длина</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>материл</t>
+  </si>
+  <si>
+    <t>цвет</t>
+  </si>
+  <si>
+    <t>длина автомобиля</t>
+  </si>
+  <si>
+    <t>ширина автомобиля</t>
+  </si>
+  <si>
+    <t>цвет автомобиля</t>
+  </si>
+  <si>
+    <t>Какая длина автомобиля</t>
+  </si>
+  <si>
+    <t>Какая ширина автомобиля</t>
+  </si>
+  <si>
+    <t>Какаой вес автомобиля</t>
+  </si>
+  <si>
+    <t>материал автомобиля</t>
+  </si>
+  <si>
+    <t>Из какого материала кузов</t>
+  </si>
+  <si>
+    <t>Какой цвет кузова</t>
+  </si>
+  <si>
+    <t>id кузова</t>
+  </si>
+  <si>
+    <t>id_brake system</t>
+  </si>
+  <si>
+    <t>уникальный id тормозной системы</t>
+  </si>
+  <si>
+    <t>id тормозной системы</t>
+  </si>
+  <si>
+    <t>support front</t>
+  </si>
+  <si>
+    <t>support back</t>
+  </si>
+  <si>
+    <t>brake discs front</t>
+  </si>
+  <si>
+    <t>brake discs brake</t>
+  </si>
+  <si>
+    <t>передний супорт</t>
+  </si>
+  <si>
+    <t>задний супорт</t>
+  </si>
+  <si>
+    <t>передний тормозной диск</t>
+  </si>
+  <si>
+    <t>задний тормозной диск</t>
+  </si>
+  <si>
+    <t>Сколько цилиндров в передней супорте</t>
+  </si>
+  <si>
+    <t>Сколько цилиндров в заднем супорте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой  тип передних  тромозных дисков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой  тип задних  тромозных дисков </t>
+  </si>
+  <si>
+    <t>air filter</t>
+  </si>
+  <si>
+    <t>block head</t>
+  </si>
+  <si>
+    <t>intake manifold</t>
+  </si>
+  <si>
+    <t>воздушный фильтр</t>
+  </si>
+  <si>
+    <t>головка цилиндров</t>
+  </si>
+  <si>
+    <t>впускной коллектор</t>
+  </si>
+  <si>
+    <t>id_intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какой воздушный фильтр </t>
+  </si>
+  <si>
+    <t>какая головка блока цилндров</t>
+  </si>
+  <si>
+    <t>какой впускной коллектор</t>
+  </si>
+  <si>
+    <t>id_safety</t>
+  </si>
+  <si>
+    <t>уникальный id безопасность</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id безопасность</t>
+  </si>
+  <si>
+    <t>number_airbags</t>
+  </si>
+  <si>
+    <t>id томозной системы</t>
+  </si>
+  <si>
+    <t>crash_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количесвто подушек </t>
+  </si>
+  <si>
+    <t>балы краш теста</t>
+  </si>
+  <si>
+    <t>Сколько подушек безопасности</t>
+  </si>
+  <si>
+    <t>Какой бал краш теста</t>
+  </si>
+  <si>
+    <t>id прибыль</t>
+  </si>
+  <si>
+    <t>id затраты</t>
+  </si>
+  <si>
+    <t>id музея</t>
+  </si>
+  <si>
+    <t>id входного билета</t>
+  </si>
+  <si>
+    <t>id поситителя</t>
+  </si>
+  <si>
+    <t>Активности</t>
+  </si>
+  <si>
+    <t>id активности</t>
+  </si>
+  <si>
+    <t>id экскурсии</t>
+  </si>
+  <si>
+    <t>costs_marketing</t>
+  </si>
+  <si>
+    <t>organizational costs</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>маркетинг</t>
+  </si>
+  <si>
+    <t>организационные</t>
+  </si>
+  <si>
+    <t>запрлата</t>
+  </si>
+  <si>
+    <t>затраты на маркетинг</t>
+  </si>
+  <si>
+    <t>организационные затраты</t>
+  </si>
+  <si>
+    <t>зарплата сотрудникам</t>
+  </si>
+  <si>
+    <t>Какие маркетинговые затраты</t>
+  </si>
+  <si>
+    <t>Какие организационные затраты</t>
+  </si>
+  <si>
+    <t>Какая сумма уходит на зп</t>
+  </si>
+  <si>
+    <t>билеты</t>
+  </si>
+  <si>
+    <t>экскурсии</t>
+  </si>
+  <si>
+    <t>активности</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>exscursion</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>сумма с продаж билетов</t>
+  </si>
+  <si>
+    <t>сумма полученная с экскурсий</t>
+  </si>
+  <si>
+    <t>сумма заработанная на аквтивностях</t>
+  </si>
+  <si>
+    <t>Сколь заработа с продаж билетов</t>
+  </si>
+  <si>
+    <t>Сколь заработа с экскурсий</t>
+  </si>
+  <si>
+    <t>Сколь заработа на активностях</t>
+  </si>
+  <si>
+    <t>свод правил</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id правила музея</t>
+  </si>
+  <si>
+    <t>Сколько экспанатов участвует в выставке</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -940,8 +1885,36 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,8 +2023,104 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1115,28 +2184,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1171,103 +2281,256 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1278,11 +2541,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF6666FF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FF9966FF"/>
-      <color rgb="FF3366FF"/>
+      <color rgb="FF0099CC"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF339966"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF9933FF"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF3333FF"/>
+      <color rgb="FF0066CC"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFCC0066"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1559,15 +2827,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079F2502-624F-4982-B6ED-2064B6331096}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
@@ -1582,30 +2851,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="I1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+        <v>71</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>1</v>
@@ -1620,13 +2889,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>1</v>
@@ -1638,21 +2907,21 @@
         <v>3</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
+      <c r="A3" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -1661,16 +2930,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>72</v>
+        <v>113</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
@@ -1682,18 +2951,18 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="34" t="s">
-        <v>57</v>
+      <c r="A4" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1705,19 +2974,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>11</v>
@@ -1726,18 +2995,18 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="35" t="s">
-        <v>66</v>
+      <c r="A5" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -1749,19 +3018,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -1770,18 +3039,18 @@
         <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="36" t="s">
-        <v>95</v>
+      <c r="A6" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1793,19 +3062,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>8</v>
@@ -1814,18 +3083,18 @@
         <v>5</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="37" t="s">
-        <v>69</v>
+      <c r="A7" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1837,19 +3106,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -1858,18 +3127,18 @@
         <v>200</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>91</v>
+      <c r="A8" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1881,19 +3150,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>11</v>
@@ -1902,18 +3171,18 @@
         <v>10</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="39" t="s">
-        <v>72</v>
+      <c r="A9" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1925,39 +3194,39 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="2">
         <v>200</v>
       </c>
-      <c r="N9" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>167</v>
+      <c r="N9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="40" t="s">
-        <v>98</v>
+      <c r="A10" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -1969,224 +3238,245 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:15" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="I14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A15" s="21" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="15" spans="1:15" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="F16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="J16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="N16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="2">
-        <v>10</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M17" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="2">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="30">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -2195,129 +3485,150 @@
         <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M19" s="2">
+        <v>200</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="2">
         <v>2</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30">
-      <c r="A20" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="N20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27.75" customHeight="1">
+      <c r="A21" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="2">
         <v>150</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="N21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="30">
-      <c r="A22" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
+      <c r="F22" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30">
+      <c r="A23" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -2329,128 +3640,112 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1"/>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:15" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="I26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1">
+      <c r="A24" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="21" t="s">
+      <c r="G24" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25"/>
+      <c r="C25" s="12"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:15" ht="30.75" customHeight="1" thickBot="1"/>
+    <row r="27" spans="1:15" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D28" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="F28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="22" t="s">
+      <c r="J28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L28" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="2">
-        <v>10</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>114</v>
+      <c r="N28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="41" t="s">
-        <v>68</v>
+      <c r="A29" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -2462,39 +3757,39 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="2">
+        <v>10</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="2">
-        <v>30</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="42" t="s">
-        <v>73</v>
+      <c r="A30" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -2506,286 +3801,285 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="2">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="2">
         <v>200</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="30">
-      <c r="I31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="2">
-        <v>2</v>
-      </c>
       <c r="N31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30">
       <c r="I32" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="2">
-        <v>150</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="O32" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="32.25" customHeight="1">
       <c r="I33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="2">
+        <v>150</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="31.5" customHeight="1">
+      <c r="I34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="2">
+        <v>5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="J33" s="13" t="s">
+    </row>
+    <row r="36" spans="1:15" ht="31.5" customHeight="1" thickBot="1"/>
+    <row r="37" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="I37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" s="2">
+        <v>10</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K33" s="2" t="s">
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="2">
-        <v>5</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="31.5" customHeight="1"/>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="36" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="I36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="2">
-        <v>10</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2">
-        <v>50</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="2">
-        <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="30">
-      <c r="A40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>125</v>
+      <c r="B40" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>100</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>140</v>
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>11</v>
@@ -2794,21 +4088,42 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="30">
+      <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>100</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="I41" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>11</v>
@@ -2817,445 +4132,425 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="43" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A43" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="I42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="2">
+        <v>30</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A44" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="I44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="I43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="21" t="s">
+      <c r="I45" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="J45" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="L45" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="M45" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O44" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="N45" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="38" t="s">
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="2">
-        <v>10</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="L46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="2">
+        <v>10</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="2">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" s="2">
-        <v>30</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="30">
-      <c r="A47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>118</v>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>100</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>144</v>
+        <v>50</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2">
+        <v>30</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="48" spans="1:15" ht="30">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2">
+        <v>100</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="I48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="2">
+        <v>200</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="I49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="27.75" customHeight="1"/>
+    <row r="51" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A52" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="I52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="2">
+        <v>10</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="2" t="s">
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="2">
-        <v>2</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="27.75" customHeight="1" thickBot="1"/>
-    <row r="51" spans="1:15" ht="30.75" thickBot="1">
-      <c r="A51" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="I51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M52" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" s="2">
-        <v>10</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="30">
-      <c r="A54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="2">
-        <v>50</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="2">
-        <v>30</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="30">
-      <c r="A55" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="B55" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2">
+        <v>50</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="2">
         <v>30</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="2">
-        <v>10</v>
-      </c>
       <c r="N55" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="30">
       <c r="A56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -3263,456 +4558,744 @@
       <c r="E56" s="2">
         <v>30</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F56" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="2">
+        <v>10</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="30">
+      <c r="A57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2">
+        <v>30</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M56" s="2">
+      <c r="K57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="2">
         <v>2</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="30">
-      <c r="I57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="2" t="s">
+      <c r="O57" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="39.75" customHeight="1">
+      <c r="I58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M58" s="2">
         <v>150</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="59" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A59" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="I59" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="21" t="s">
+      <c r="N58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="30" customHeight="1" thickBot="1"/>
+    <row r="60" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A60" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="I60" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B61" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="2">
+        <v>10</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="54">
+        <v>50</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L63" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="2">
         <v>100</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="N63" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="54">
+        <v>50</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="2">
+        <v>500</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="O64" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="54">
+        <v>50</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="2">
+        <v>6</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="54">
+        <v>20</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="2">
+        <v>6</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="54">
+        <v>100</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="54">
+        <v>10</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="54">
+        <v>30</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1">
+      <c r="A70" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="54">
+        <v>30</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="54">
+        <v>20</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="40.5" customHeight="1" thickBot="1"/>
+    <row r="73" spans="1:15" ht="33" customHeight="1">
+      <c r="A73" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="I73" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D74" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E74" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="21" t="s">
+      <c r="F74" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J60" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K60" s="22" t="s">
+      <c r="J74" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="L74" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M60" s="22" t="s">
+      <c r="M74" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O60" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="N74" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O74" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="2">
-        <v>10</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I75" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M61" s="2">
-        <v>10</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A66" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="I66" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N67" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O67" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="L75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M75" s="2">
+        <v>10</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="54">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I76" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2">
-        <v>10</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M68" s="2">
-        <v>10</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A74" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="2">
-        <v>10</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>278</v>
+      <c r="L76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="2">
+        <v>10</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="54">
+        <v>200</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="2">
+        <v>15</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
+      <c r="A78" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="2">
+        <v>15</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="32.25" customHeight="1"/>
+    <row r="82" ht="30.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3721,10 +5304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3736,11 +5319,12 @@
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" customWidth="1"/>
     <col min="7" max="7" width="41.140625" customWidth="1"/>
-    <col min="9" max="10" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="37.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="33.7109375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1"/>
@@ -3755,7 +5339,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="8"/>
@@ -3769,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -3781,16 +5365,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3802,18 +5386,18 @@
         <v>3</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="98" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -3828,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>7</v>
@@ -3846,18 +5430,18 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -3869,19 +5453,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -3890,18 +5474,18 @@
         <v>50</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="30">
       <c r="A6" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -3913,19 +5497,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>11</v>
@@ -3934,18 +5518,18 @@
         <v>20</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30">
       <c r="A7" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -3957,19 +5541,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -3978,18 +5562,18 @@
         <v>20</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40.5" customHeight="1">
-      <c r="A8" s="50" t="s">
-        <v>32</v>
+      <c r="A8" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -4001,19 +5585,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>11</v>
@@ -4022,21 +5606,42 @@
         <v>100</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A9" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>501</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>11</v>
@@ -4045,16 +5650,16 @@
         <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:15" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="8"/>
@@ -4063,7 +5668,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="I11" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
@@ -4077,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -4089,16 +5694,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>1</v>
@@ -4110,18 +5715,18 @@
         <v>3</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -4133,16 +5738,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>32</v>
+        <v>224</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>7</v>
@@ -4154,42 +5759,42 @@
         <v>10</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>243</v>
+      <c r="A14" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>485</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>11</v>
@@ -4198,42 +5803,42 @@
         <v>10</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
+      <c r="A15" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>235</v>
+        <v>464</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>11</v>
@@ -4242,42 +5847,42 @@
         <v>10</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="25.5">
-      <c r="A16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>476</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>11</v>
@@ -4286,39 +5891,39 @@
         <v>100</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>43</v>
+      <c r="A17" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13">
+        <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>7</v>
@@ -4330,216 +5935,1493 @@
         <v>10</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
+      <c r="A18" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
+        <v>507</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="13" t="s">
-        <v>236</v>
+      <c r="A19" s="85" t="s">
+        <v>524</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" customHeight="1" thickBot="1"/>
-    <row r="21" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13">
+        <v>10</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A20" s="86" t="s">
+        <v>545</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A21" s="87" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="33.75" customHeight="1"/>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:15" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" ht="49.5" customHeight="1">
+      <c r="A25" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B25" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="I25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="N25" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="2">
+        <v>10</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="41.25" customHeight="1">
+      <c r="A27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="62.25" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
         <v>20</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" ht="30.75" customHeight="1"/>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="2">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="30">
+      <c r="A29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2">
+        <v>10</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="45">
+      <c r="A30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="2">
+        <v>10</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="39" customHeight="1"/>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="33" spans="1:15" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A33" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="81"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="I33" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A34" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="O34" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="13">
+        <v>10</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I35" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>10</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30">
+      <c r="A36" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>509</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="74">
+        <v>6</v>
+      </c>
+      <c r="N36" s="74" t="s">
+        <v>514</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="65">
+        <v>5</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I37" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="74">
+        <v>6</v>
+      </c>
+      <c r="N37" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="65">
+        <v>5</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="I38" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="74">
+        <v>6</v>
+      </c>
+      <c r="N38" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.5">
+      <c r="A39" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="65">
+        <v>3</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="74">
+        <v>10</v>
+      </c>
+      <c r="N39" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30">
+      <c r="A40" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="13">
+        <v>10</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="2">
+        <v>20</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="28.5">
+      <c r="A41" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="74">
+        <v>4</v>
+      </c>
+      <c r="F41" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="31.5" customHeight="1"/>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:15" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A44" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="I44" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" ht="32.25" customHeight="1">
+      <c r="A45" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I46" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="13">
+        <v>10</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30">
+      <c r="A47" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="74">
+        <v>20</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="13">
+        <v>10</v>
+      </c>
+      <c r="N47" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="30">
+      <c r="A48" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="74">
+        <v>20</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J48" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="13">
+        <v>10</v>
+      </c>
+      <c r="N48" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="10"/>
+      <c r="I49" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="J49" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="13">
+        <v>10</v>
+      </c>
+      <c r="N49" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="10"/>
+      <c r="I50" s="62" t="s">
+        <v>530</v>
+      </c>
+      <c r="J50" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="13">
+        <v>10</v>
+      </c>
+      <c r="N50" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="A52" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="I52" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" ht="18" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O53" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="13">
+        <v>10</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="I54" s="86" t="s">
+        <v>545</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="13">
+        <v>10</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="19">
+        <v>10</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="I55" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="J55" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="13">
+        <v>10</v>
+      </c>
+      <c r="N55" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="25.5">
+      <c r="A56" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="19">
+        <v>10</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="J56" s="62" t="s">
+        <v>543</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="13">
+        <v>10</v>
+      </c>
+      <c r="N56" s="62" t="s">
+        <v>543</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="43"/>
+      <c r="I57" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="J57" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="13">
+        <v>10</v>
+      </c>
+      <c r="N57" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="43"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="30" customHeight="1"/>
+    <row r="60" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="61" spans="1:15" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A61" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="I61" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A62" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M62" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O62" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="80" t="s">
+        <v>483</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="13">
+        <v>10</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I63" s="87" t="s">
+        <v>549</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" s="13">
+        <v>10</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I64" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="J64" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" s="13">
+        <v>2</v>
+      </c>
+      <c r="N64" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="O64" s="65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="19">
+        <v>3</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I65" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="J65" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="19">
+        <v>3</v>
+      </c>
+      <c r="N65" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I66" s="69"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="10"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="10"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4548,28 +7430,1209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A2451-F639-4875-9061-1A52A1832375}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EFE085-80E0-4703-8077-ED69D56D9C10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="J1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30">
+      <c r="A4" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="13">
+        <v>20</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30">
+      <c r="A5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="13">
+        <v>20</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45">
+      <c r="A6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="13">
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30">
+      <c r="A7" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="13">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="13">
+        <v>20</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="13">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A13" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="101" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="34.5" customHeight="1"/>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:16" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A20" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="J20" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="19.5" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13">
+        <v>8</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="2">
+        <v>30</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30">
+      <c r="A24" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13">
+        <v>8</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30">
+      <c r="A25" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13">
+        <v>8</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30">
+      <c r="J26" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="2">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="28.5" customHeight="1"/>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A31" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="J31" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="13">
+        <v>10</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="13">
+        <v>10</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="32.25" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="13">
+        <v>8</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="13">
+        <v>10</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="32.25" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="13">
+        <v>8</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="13">
+        <v>10</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30">
+      <c r="A36" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="13">
+        <v>8</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="13">
+        <v>50</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="J37" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="13">
+        <v>200</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="30.75" thickBot="1">
+      <c r="J38" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="13">
+        <v>50</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A39" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2">
+        <v>100</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="29.25" customHeight="1"/>
+    <row r="48" spans="1:16" ht="30" customHeight="1"/>
+    <row r="50" spans="10:11">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="55" spans="10:11" ht="33" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>